--- a/temp/pages/StructureDefinition-Practitioner.xlsx
+++ b/temp/pages/StructureDefinition-Practitioner.xlsx
@@ -1903,17 +1903,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1922,26 +1922,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.04296875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="42.12109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="96.00390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="47.6640625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/temp/pages/StructureDefinition-Practitioner.xlsx
+++ b/temp/pages/StructureDefinition-Practitioner.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/StructureDefinition/Practitioner</t>
+    <t>http://br-ipes.com/fhir/StructureDefinition/Practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -459,7 +459,7 @@
     <t>Practitioner.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://ehrrunner.com/fhir/StructureDefinition/IdentificadorIndividuo}
+    <t xml:space="preserve">Identifier {http://br-ipes.com/fhir/StructureDefinition/IdentificadorIndividuo}
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
     <t>Practitioner.qualification:specialty.code</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/ValueSet/Especialidade</t>
+    <t>http://br-ipes.com/fhir/ValueSet/Especialidade</t>
   </si>
   <si>
     <t>Practitioner.qualification:specialty.code.id</t>
@@ -1519,7 +1519,7 @@
     <t>Practitioner.qualification:fieldOfPractice.code</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/ValueSet/AreaAtuacao</t>
+    <t>http://br-ipes.com/fhir/ValueSet/AreaAtuacao</t>
   </si>
   <si>
     <t>Practitioner.qualification:fieldOfPractice.code.id</t>

--- a/temp/pages/StructureDefinition-Practitioner.xlsx
+++ b/temp/pages/StructureDefinition-Practitioner.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$124</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -1068,29 +1065,33 @@
 </t>
   </si>
   <si>
-    <t>Nome do Indivíduo</t>
-  </si>
-  <si>
-    <t>Nome(s) associado(s) ao indivíduo.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>The name(s) associated with the practitioner</t>
+  </si>
+  <si>
+    <t>The name(s) associated with the practitioner.</t>
+  </si>
+  <si>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  ++In general, select the value to be used in the ResourceReference.display based on this:++1. There is more than 1 name+2. Use = usual+3. Period is current to the date of the usage+4. Use = official+5. Other order as decided by internal business rules.</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
+    <t>XCN Components</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -1711,21 +1712,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1940,7 +1926,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="42.12109375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="96.00390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="47.6640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2066,7 +2052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
@@ -2178,7 +2164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -2292,7 +2278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -2404,7 +2390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -2518,7 +2504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -2632,7 +2618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2746,7 +2732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2860,7 +2846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2974,7 +2960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3090,7 +3076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -3202,7 +3188,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>152</v>
       </c>
@@ -3320,7 +3306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>157</v>
       </c>
@@ -3432,7 +3418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -3546,7 +3532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
@@ -3662,7 +3648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>181</v>
       </c>
@@ -3778,7 +3764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>194</v>
       </c>
@@ -3890,7 +3876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>196</v>
       </c>
@@ -4004,7 +3990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>198</v>
       </c>
@@ -4120,7 +4106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>208</v>
       </c>
@@ -4232,7 +4218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>210</v>
       </c>
@@ -4346,7 +4332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>212</v>
       </c>
@@ -4462,7 +4448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>221</v>
       </c>
@@ -4576,7 +4562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>229</v>
       </c>
@@ -4690,7 +4676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>237</v>
       </c>
@@ -4804,7 +4790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>245</v>
       </c>
@@ -4920,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>255</v>
       </c>
@@ -5036,7 +5022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>264</v>
       </c>
@@ -5152,7 +5138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>276</v>
       </c>
@@ -5266,7 +5252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>286</v>
       </c>
@@ -5378,7 +5364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>295</v>
       </c>
@@ -5492,7 +5478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>305</v>
       </c>
@@ -5608,7 +5594,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>307</v>
       </c>
@@ -5720,7 +5706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>308</v>
       </c>
@@ -5834,7 +5820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>309</v>
       </c>
@@ -5950,7 +5936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>310</v>
       </c>
@@ -6066,7 +6052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>312</v>
       </c>
@@ -6178,7 +6164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>313</v>
       </c>
@@ -6292,7 +6278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>314</v>
       </c>
@@ -6408,7 +6394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>315</v>
       </c>
@@ -6520,7 +6506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>316</v>
       </c>
@@ -6634,7 +6620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>317</v>
       </c>
@@ -6750,7 +6736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>318</v>
       </c>
@@ -6864,7 +6850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>319</v>
       </c>
@@ -6978,7 +6964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>320</v>
       </c>
@@ -7092,7 +7078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>321</v>
       </c>
@@ -7208,7 +7194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>322</v>
       </c>
@@ -7324,7 +7310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>323</v>
       </c>
@@ -7440,7 +7426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>325</v>
       </c>
@@ -7554,7 +7540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>326</v>
       </c>
@@ -7666,7 +7652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>327</v>
       </c>
@@ -7780,7 +7766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>328</v>
       </c>
@@ -7898,7 +7884,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>336</v>
       </c>
@@ -7917,13 +7903,13 @@
         <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>18</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>337</v>
@@ -7996,30 +7982,30 @@
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AN53" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="B54" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8042,19 +8028,19 @@
         <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>18</v>
@@ -8103,7 +8089,7 @@
         <v>18</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -8118,24 +8104,24 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN54" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8158,19 +8144,19 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>18</v>
@@ -8219,7 +8205,7 @@
         <v>18</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -8234,24 +8220,24 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AN55" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8277,14 +8263,14 @@
         <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>18</v>
@@ -8312,11 +8298,11 @@
         <v>176</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>18</v>
       </c>
@@ -8333,7 +8319,7 @@
         <v>18</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -8348,24 +8334,24 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8388,17 +8374,17 @@
         <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>18</v>
@@ -8447,7 +8433,7 @@
         <v>18</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -8462,24 +8448,24 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN57" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8502,17 +8488,17 @@
         <v>18</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>18</v>
@@ -8561,7 +8547,7 @@
         <v>18</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -8579,21 +8565,21 @@
         <v>18</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN58" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="B59" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8616,13 +8602,13 @@
         <v>18</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8661,7 +8647,7 @@
         <v>18</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
@@ -8671,7 +8657,7 @@
         <v>147</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -8686,24 +8672,24 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="B60" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8810,12 +8796,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8924,16 +8910,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8955,10 +8941,10 @@
         <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>133</v>
@@ -9013,7 +8999,7 @@
         <v>18</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
@@ -9040,12 +9026,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9071,14 +9057,14 @@
         <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>18</v>
@@ -9127,7 +9113,7 @@
         <v>18</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -9145,21 +9131,21 @@
         <v>18</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9185,10 +9171,10 @@
         <v>183</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9215,14 +9201,14 @@
         <v>18</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>18</v>
       </c>
@@ -9239,7 +9225,7 @@
         <v>18</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>84</v>
@@ -9257,21 +9243,21 @@
         <v>18</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN64" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="B65" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9297,14 +9283,14 @@
         <v>288</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>18</v>
@@ -9353,7 +9339,7 @@
         <v>18</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
@@ -9371,21 +9357,21 @@
         <v>18</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AN65" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9411,10 +9397,10 @@
         <v>297</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9465,7 +9451,7 @@
         <v>18</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -9483,24 +9469,24 @@
         <v>18</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM66" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
+      <c r="B67" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>18</v>
@@ -9522,13 +9508,13 @@
         <v>18</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9579,7 +9565,7 @@
         <v>18</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
@@ -9594,24 +9580,24 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9718,12 +9704,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9832,16 +9818,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9863,10 +9849,10 @@
         <v>130</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>133</v>
@@ -9921,7 +9907,7 @@
         <v>18</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
@@ -9948,12 +9934,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9979,14 +9965,14 @@
         <v>155</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>18</v>
@@ -10035,7 +10021,7 @@
         <v>18</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -10053,21 +10039,21 @@
         <v>18</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10093,10 +10079,10 @@
         <v>183</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10127,7 +10113,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>18</v>
@@ -10145,7 +10131,7 @@
         <v>18</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>84</v>
@@ -10163,21 +10149,21 @@
         <v>18</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10284,12 +10270,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10398,12 +10384,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10514,12 +10500,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10626,12 +10612,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10740,12 +10726,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10856,12 +10842,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10970,12 +10956,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11084,12 +11070,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11198,12 +11184,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11314,12 +11300,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11430,12 +11416,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11461,14 +11447,14 @@
         <v>288</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>18</v>
@@ -11517,7 +11503,7 @@
         <v>18</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>74</v>
@@ -11535,21 +11521,21 @@
         <v>18</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11575,10 +11561,10 @@
         <v>297</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11629,7 +11615,7 @@
         <v>18</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>74</v>
@@ -11647,7 +11633,7 @@
         <v>18</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>18</v>
@@ -11656,15 +11642,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>18</v>
@@ -11686,13 +11672,13 @@
         <v>18</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11743,7 +11729,7 @@
         <v>18</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>74</v>
@@ -11758,24 +11744,24 @@
         <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11882,12 +11868,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11996,16 +11982,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12027,10 +12013,10 @@
         <v>130</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>133</v>
@@ -12085,7 +12071,7 @@
         <v>18</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>74</v>
@@ -12112,12 +12098,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12143,14 +12129,14 @@
         <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>18</v>
@@ -12199,7 +12185,7 @@
         <v>18</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>74</v>
@@ -12217,21 +12203,21 @@
         <v>18</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B91" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12257,10 +12243,10 @@
         <v>183</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12291,7 +12277,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>18</v>
@@ -12309,7 +12295,7 @@
         <v>18</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>84</v>
@@ -12327,21 +12313,21 @@
         <v>18</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12448,12 +12434,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12562,12 +12548,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12678,12 +12664,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12790,12 +12776,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12904,12 +12890,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13020,12 +13006,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13134,12 +13120,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13248,12 +13234,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13362,12 +13348,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13478,12 +13464,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13594,12 +13580,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13625,14 +13611,14 @@
         <v>288</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>18</v>
@@ -13681,7 +13667,7 @@
         <v>18</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>74</v>
@@ -13699,21 +13685,21 @@
         <v>18</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13739,10 +13725,10 @@
         <v>297</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13793,7 +13779,7 @@
         <v>18</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>74</v>
@@ -13811,7 +13797,7 @@
         <v>18</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>18</v>
@@ -13820,15 +13806,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>18</v>
@@ -13850,13 +13836,13 @@
         <v>18</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13907,7 +13893,7 @@
         <v>18</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>74</v>
@@ -13922,24 +13908,24 @@
         <v>96</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL105" t="s" s="2">
+      <c r="AM105" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM105" t="s" s="2">
+      <c r="AN105" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B106" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14046,12 +14032,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14160,16 +14146,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14191,10 +14177,10 @@
         <v>130</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>133</v>
@@ -14249,7 +14235,7 @@
         <v>18</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>74</v>
@@ -14276,12 +14262,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14307,14 +14293,14 @@
         <v>155</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>18</v>
@@ -14363,7 +14349,7 @@
         <v>18</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>74</v>
@@ -14381,21 +14367,21 @@
         <v>18</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14421,10 +14407,10 @@
         <v>183</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14455,7 +14441,7 @@
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>18</v>
@@ -14473,7 +14459,7 @@
         <v>18</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>84</v>
@@ -14491,21 +14477,21 @@
         <v>18</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14612,12 +14598,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14726,12 +14712,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14842,12 +14828,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14954,12 +14940,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15068,12 +15054,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15184,12 +15170,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15298,12 +15284,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15412,12 +15398,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15526,12 +15512,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15642,12 +15628,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15758,12 +15744,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15789,14 +15775,14 @@
         <v>288</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>18</v>
@@ -15845,7 +15831,7 @@
         <v>18</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>74</v>
@@ -15863,21 +15849,21 @@
         <v>18</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15903,10 +15889,10 @@
         <v>297</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -15957,7 +15943,7 @@
         <v>18</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>74</v>
@@ -15975,7 +15961,7 @@
         <v>18</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>18</v>
@@ -15984,12 +15970,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16015,16 +16001,16 @@
         <v>183</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>18</v>
@@ -16073,7 +16059,7 @@
         <v>18</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>74</v>
@@ -16088,37 +16074,19 @@
         <v>96</v>
       </c>
       <c r="AK124" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL124" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AL124" t="s" s="2">
+      <c r="AM124" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN124">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI123">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>